--- a/biology/Zoologie/Indosylvirana/Indosylvirana.xlsx
+++ b/biology/Zoologie/Indosylvirana/Indosylvirana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Indosylvirana est un genre d'amphibiens de la famille des Ranidae[1]comme sa cousine la grenouille 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Indosylvirana est un genre d'amphibiens de la famille des Ranidaecomme sa cousine la grenouille 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les treize espèces de ce genre se rencontrent en Asie du Sud et en Asie du Sud-Est[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les treize espèces de ce genre se rencontrent en Asie du Sud et en Asie du Sud-Est.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (3 juillet 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (3 juillet 2015) :
 Indosylvirana aurantiaca (Boulenger, 1904)
 Indosylvirana caesari (Biju, Mahony, Wijayathilaka, Seneviranthne &amp; Meegaskumbura, 2014)
 Indosylvirana doni (Biju, Garg, Mahony, Wijayathilaka, Seneviranthne &amp; Meegaskumbura, 2014)
@@ -585,7 +601,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Oliver, Prendini, Kraus &amp; Raxworthy, 2015 : Systematics and biogeography of the Hylarana frog (Anura: Ranidae) radiation across tropical Australasia, Southeast Asia, and Africa. Molecular Phylogenetics and Evolution, vol. 90, p. 176–192.</t>
         </is>
